--- a/story_xlsx_files/23.xlsx
+++ b/story_xlsx_files/23.xlsx
@@ -12,12 +12,161 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>storyText</t>
   </si>
   <si>
-    <t>Grocery shopping Proposal</t>
+    <t>locationEvent</t>
+  </si>
+  <si>
+    <t>socialEvent</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Al</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>x was a distracted, sweaty mess as he walked into the grocery store with Chloe; he was hoping that she wouldn't suspect that he was about to propose</t>
+    </r>
+  </si>
+  <si>
+    <t>The grocery store was brightly lit; this was one of the nicest grocery stores in Atlanta, and sunlight poured in through the glass walls.</t>
+  </si>
+  <si>
+    <t>The atmosphere was also bright, because tomorrow was Thanksgiving and most shoppers had carts piled high with turkey, stuffing, and pie.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex wanted to propose to Chloe here because he knew she would not suspect it at all. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chloe loved surprises and Alex loved the look on Chloe’s face when she was surprised. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Alex, we need to get some cranberry sauce, so let’s go there first.” </t>
+  </si>
+  <si>
+    <t xml:space="preserve">She led the way to the section of the store that held the canned foods. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex looked like he was going to throw up. </t>
+  </si>
+  <si>
+    <t>As they were walking there Chloe asked him, “Is everything okay, dear?”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Oh yeah, for sure,” he said, unconvincingly. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">She chuckled, “Alright, whatever you say.” </t>
+  </si>
+  <si>
+    <t>She was mulling over the different cans of cranberry sauce and Alex knew she would be a while.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He turned his back to her and pulled out the ring.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He had been saving up for this for a while. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ring had three large diamonds, with smaller ones encircling each one: all of them sparkled in the light streaming in from the windows. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Alex?” Chloe said suspiciously. </t>
+  </si>
+  <si>
+    <t>He closed the box and whipped around. “Yes?”</t>
+  </si>
+  <si>
+    <t>“Do we need anything else?”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Yeah I don’t know, honey.” </t>
+  </si>
+  <si>
+    <t>They went to the checkout and waited in a long line.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex was staring intensely off into the distance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chloe was watching him trying to decide whether he looked scared or confused. </t>
+  </si>
+  <si>
+    <t>Alex looked over at their friends who were waiting by the entrance of the grocery store.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They got the message, and walked over slowly. </t>
+  </si>
+  <si>
+    <t>“Honey,” he said to get her attention, “Look, Chloe, I love you so much. And I want to be with you forever, I can’t imagine a day without you.”</t>
+  </si>
+  <si>
+    <t>“Awww Alex, me too.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex got down on one knee, and Chloe gasped. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “I am serious, Chloe. Will you marry me?”</t>
+  </si>
+  <si>
+    <t>The people in line around them realized what was happening ,and stepped back and started taking pictures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Their friends were no longer trying to hide and were videotaping and taking pictures too. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chloe looked around and laughed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “Yes!” she shouted, and jumped to embrace Alex in a tearful hug. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everyone in line clapped and cheered. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alex put the ring on Chloe’s finger, who was nearly spinning in excitement.</t>
+  </si>
+  <si>
+    <t>“I love it, oh my gosh, it’s so glittery! Look at this!” she shoved her finger in a stranger’s face.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Her friends came over and hugged them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The other people let them move up to the front of the checkout line. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The cashier congratulated them and scanned their cranberry sauce. </t>
+  </si>
+  <si>
+    <t>The total came to $4 and Chloe paid in cash, getting distracted and staring at the ring as she pulled out the bills.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex grabbed the cans and they walked out with their friends bunched around them. </t>
   </si>
 </sst>
 </file>
@@ -27,7 +176,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -43,6 +192,11 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="4">
@@ -184,7 +338,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -197,10 +351,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -209,14 +366,17 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1300,7 +1460,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1316,205 +1476,616 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="4">
+    <row r="2" ht="128.25" customHeight="1">
+      <c r="A2" t="s" s="4">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" ht="104.05" customHeight="1">
+      <c r="A3" t="s" s="8">
+        <v>4</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" ht="116.05" customHeight="1">
+      <c r="A4" t="s" s="8">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" ht="80.05" customHeight="1">
+      <c r="A5" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" ht="80.05" customHeight="1">
+      <c r="A6" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" ht="68.05" customHeight="1">
+      <c r="A7" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="B7" s="9">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" ht="56.05" customHeight="1">
+      <c r="A8" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="B8" s="9">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" ht="44.05" customHeight="1">
+      <c r="A9" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="B9" s="9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" ht="68.05" customHeight="1">
+      <c r="A10" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" ht="44.05" customHeight="1">
+      <c r="A11" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="B11" s="9">
+        <v>2</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" ht="44.05" customHeight="1">
+      <c r="A12" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="B12" s="9">
+        <v>2</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" ht="80.05" customHeight="1">
+      <c r="A13" t="s" s="8">
+        <v>14</v>
+      </c>
+      <c r="B13" s="9">
+        <v>2</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" ht="44.05" customHeight="1">
+      <c r="A14" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="B14" s="9">
+        <v>2</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" ht="44.05" customHeight="1">
+      <c r="A15" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="B15" s="9">
+        <v>2</v>
+      </c>
+      <c r="C15" s="10">
+        <v>2</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" ht="104.05" customHeight="1">
+      <c r="A16" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="B16" s="9">
+        <v>2</v>
+      </c>
+      <c r="C16" s="10">
+        <v>2</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" ht="32.05" customHeight="1">
+      <c r="A17" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B17" s="9">
+        <v>2</v>
+      </c>
+      <c r="C17" s="10">
+        <v>2</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" ht="44.05" customHeight="1">
+      <c r="A18" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="B18" s="9">
+        <v>2</v>
+      </c>
+      <c r="C18" s="10">
+        <v>2</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" ht="32.05" customHeight="1">
+      <c r="A19" t="s" s="8">
+        <v>20</v>
+      </c>
+      <c r="B19" s="9">
+        <v>2</v>
+      </c>
+      <c r="C19" s="10">
+        <v>2</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" ht="32.05" customHeight="1">
+      <c r="A20" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="B20" s="9">
+        <v>2</v>
+      </c>
+      <c r="C20" s="10">
+        <v>2</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" ht="56.05" customHeight="1">
+      <c r="A21" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="B21" s="9">
+        <v>3</v>
+      </c>
+      <c r="C21" s="10">
+        <v>2</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" ht="44.05" customHeight="1">
+      <c r="A22" t="s" s="8">
         <v>23</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" ht="32.05" customHeight="1">
-      <c r="A3" t="s" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="B22" s="9">
+        <v>3</v>
+      </c>
+      <c r="C22" s="10">
+        <v>2</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" ht="80.05" customHeight="1">
+      <c r="A23" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="B23" s="9">
+        <v>3</v>
+      </c>
+      <c r="C23" s="10">
+        <v>2</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" ht="68.05" customHeight="1">
+      <c r="A24" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="B24" s="9">
+        <v>3</v>
+      </c>
+      <c r="C24" s="10">
+        <v>2</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" ht="56.05" customHeight="1">
+      <c r="A25" t="s" s="8">
+        <v>26</v>
+      </c>
+      <c r="B25" s="9">
+        <v>3</v>
+      </c>
+      <c r="C25" s="10">
+        <v>2</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" ht="116.05" customHeight="1">
+      <c r="A26" t="s" s="8">
+        <v>27</v>
+      </c>
+      <c r="B26" s="9">
+        <v>3</v>
+      </c>
+      <c r="C26" s="10">
+        <v>2</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" ht="32.05" customHeight="1">
+      <c r="A27" t="s" s="8">
+        <v>28</v>
+      </c>
+      <c r="B27" s="9">
+        <v>3</v>
+      </c>
+      <c r="C27" s="10">
+        <v>2</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" ht="44.05" customHeight="1">
+      <c r="A28" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="B28" s="9">
+        <v>3</v>
+      </c>
+      <c r="C28" s="10">
+        <v>3</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" ht="44.05" customHeight="1">
+      <c r="A29" t="s" s="8">
+        <v>30</v>
+      </c>
+      <c r="B29" s="9">
+        <v>3</v>
+      </c>
+      <c r="C29" s="10">
+        <v>3</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" ht="92.35" customHeight="1">
+      <c r="A30" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="B30" s="9">
+        <v>3</v>
+      </c>
+      <c r="C30" s="10">
+        <v>3</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" ht="80.05" customHeight="1">
+      <c r="A31" t="s" s="8">
+        <v>32</v>
+      </c>
+      <c r="B31" s="9">
+        <v>3</v>
+      </c>
+      <c r="C31" s="10">
+        <v>3</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" ht="44.05" customHeight="1">
+      <c r="A32" t="s" s="8">
+        <v>33</v>
+      </c>
+      <c r="B32" s="9">
+        <v>3</v>
+      </c>
+      <c r="C32" s="10">
+        <v>3</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" ht="68.05" customHeight="1">
+      <c r="A33" t="s" s="8">
+        <v>34</v>
+      </c>
+      <c r="B33" s="9">
+        <v>3</v>
+      </c>
+      <c r="C33" s="10">
+        <v>4</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" ht="44.05" customHeight="1">
+      <c r="A34" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="B34" s="9">
+        <v>3</v>
+      </c>
+      <c r="C34" s="10">
+        <v>4</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" ht="68.05" customHeight="1">
+      <c r="A35" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="B35" s="9">
+        <v>3</v>
+      </c>
+      <c r="C35" s="10">
+        <v>4</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" ht="80.05" customHeight="1">
+      <c r="A36" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="B36" s="9">
+        <v>3</v>
+      </c>
+      <c r="C36" s="10">
+        <v>4</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" ht="44.05" customHeight="1">
+      <c r="A37" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="B37" s="9">
+        <v>3</v>
+      </c>
+      <c r="C37" s="10">
+        <v>4</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" ht="56.05" customHeight="1">
+      <c r="A38" t="s" s="8">
+        <v>39</v>
+      </c>
+      <c r="B38" s="9">
+        <v>3</v>
+      </c>
+      <c r="C38" s="10">
+        <v>4</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" ht="68.05" customHeight="1">
+      <c r="A39" t="s" s="8">
+        <v>40</v>
+      </c>
+      <c r="B39" s="9">
+        <v>4</v>
+      </c>
+      <c r="C39" s="10">
+        <v>4</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" ht="92.05" customHeight="1">
+      <c r="A40" t="s" s="8">
+        <v>41</v>
+      </c>
+      <c r="B40" s="9">
+        <v>4</v>
+      </c>
+      <c r="C40" s="10">
+        <v>4</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+    </row>
+    <row r="41" ht="80.05" customHeight="1">
+      <c r="A41" t="s" s="8">
+        <v>42</v>
+      </c>
+      <c r="B41" s="9">
+        <v>4</v>
+      </c>
+      <c r="C41" s="10">
+        <v>4</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/23.xlsx
+++ b/story_xlsx_files/23.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>storyText</t>
   </si>
@@ -48,20 +48,20 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>x was a distracted, sweaty mess as he walked into the grocery store with Chloe; he was hoping that she wouldn't suspect that he was about to propose</t>
+      <t>x was a distracted, sweaty mess as he walked into the grocery store with Chloe; he was hoping that she wouldn't suspect that he was about to propose.</t>
     </r>
   </si>
   <si>
     <t>The grocery store was brightly lit; this was one of the nicest grocery stores in Atlanta, and sunlight poured in through the glass walls.</t>
   </si>
   <si>
-    <t>The atmosphere was also bright, because tomorrow was Thanksgiving and most shoppers had carts piled high with turkey, stuffing, and pie.</t>
+    <t>The atmosphere was also bright because tomorrow was Thanksgiving, and most shoppers had carts piled high with turkey, stuffing, and pie.</t>
   </si>
   <si>
     <t xml:space="preserve">Alex wanted to propose to Chloe here because he knew she would not suspect it at all. </t>
   </si>
   <si>
-    <t xml:space="preserve">Chloe loved surprises and Alex loved the look on Chloe’s face when she was surprised. </t>
+    <t xml:space="preserve">Chloe loved surprises, and Alex loved the look on Chloe’s face when she was surprised. </t>
   </si>
   <si>
     <t xml:space="preserve">“Alex, we need to get some cranberry sauce, so let’s go there first.” </t>
@@ -73,7 +73,7 @@
     <t xml:space="preserve">Alex looked like he was going to throw up. </t>
   </si>
   <si>
-    <t>As they were walking there Chloe asked him, “Is everything okay, dear?”</t>
+    <t>As they were walking there, Chloe asked him, “Is everything okay, dear?”</t>
   </si>
   <si>
     <t xml:space="preserve">“Oh yeah, for sure,” he said, unconvincingly. </t>
@@ -82,7 +82,7 @@
     <t xml:space="preserve">She chuckled, “Alright, whatever you say.” </t>
   </si>
   <si>
-    <t>She was mulling over the different cans of cranberry sauce and Alex knew she would be a while.</t>
+    <t>She was mulling over the different cans of cranberry sauce, and Alex knew she would be a while.</t>
   </si>
   <si>
     <t xml:space="preserve"> He turned his back to her and pulled out the ring.</t>
@@ -91,7 +91,7 @@
     <t xml:space="preserve">He had been saving up for this for a while. </t>
   </si>
   <si>
-    <t xml:space="preserve">The ring had three large diamonds, with smaller ones encircling each one: all of them sparkled in the light streaming in from the windows. </t>
+    <t xml:space="preserve">The ring had three large diamonds with smaller ones encircling each one: all of them sparkled in the light streaming in from the windows. </t>
   </si>
   <si>
     <t xml:space="preserve">“Alex?” Chloe said suspiciously. </t>
@@ -118,13 +118,16 @@
     <t>Alex looked over at their friends who were waiting by the entrance of the grocery store.</t>
   </si>
   <si>
-    <t xml:space="preserve">They got the message, and walked over slowly. </t>
-  </si>
-  <si>
-    <t>“Honey,” he said to get her attention, “Look, Chloe, I love you so much. And I want to be with you forever, I can’t imagine a day without you.”</t>
-  </si>
-  <si>
-    <t>“Awww Alex, me too.”</t>
+    <t xml:space="preserve">They got the message and walked over slowly. </t>
+  </si>
+  <si>
+    <t>“Honey,” he said to get her attention, “Look, Chloe, I love you so much and I want to be with you forever.</t>
+  </si>
+  <si>
+    <t>I can’t imagine a day without you.”</t>
+  </si>
+  <si>
+    <t>“Awww, Alex, me too.”</t>
   </si>
   <si>
     <t xml:space="preserve">Alex got down on one knee, and Chloe gasped. </t>
@@ -133,7 +136,7 @@
     <t xml:space="preserve"> “I am serious, Chloe. Will you marry me?”</t>
   </si>
   <si>
-    <t>The people in line around them realized what was happening ,and stepped back and started taking pictures.</t>
+    <t>The people in line around them realized what was happening, stepped back, and started taking pictures.</t>
   </si>
   <si>
     <t xml:space="preserve">Their friends were no longer trying to hide and were videotaping and taking pictures too. </t>
@@ -148,22 +151,25 @@
     <t xml:space="preserve">Everyone in line clapped and cheered. </t>
   </si>
   <si>
-    <t xml:space="preserve"> Alex put the ring on Chloe’s finger, who was nearly spinning in excitement.</t>
-  </si>
-  <si>
-    <t>“I love it, oh my gosh, it’s so glittery! Look at this!” she shoved her finger in a stranger’s face.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Her friends came over and hugged them.</t>
+    <t>Alex put the ring on Chloe’s finger, who was nearly spinning in excitement.</t>
+  </si>
+  <si>
+    <t>“I love it, oh my gosh, it’s so glittery!</t>
+  </si>
+  <si>
+    <t>Look at this!” she said as she shoved her finger in a stranger’s face.</t>
+  </si>
+  <si>
+    <t>Her friends came over and hugged them.</t>
   </si>
   <si>
     <t xml:space="preserve">The other people let them move up to the front of the checkout line. </t>
   </si>
   <si>
-    <t xml:space="preserve"> The cashier congratulated them and scanned their cranberry sauce. </t>
-  </si>
-  <si>
-    <t>The total came to $4 and Chloe paid in cash, getting distracted and staring at the ring as she pulled out the bills.</t>
+    <t xml:space="preserve">The cashier congratulated them and scanned their cranberry sauce. </t>
+  </si>
+  <si>
+    <t>The total came to $4 and Chloe paid in cash while getting distracted and staring at the ring as she pulled out the bills.</t>
   </si>
   <si>
     <t xml:space="preserve">Alex grabbed the cans and they walked out with their friends bunched around them. </t>
@@ -1460,7 +1466,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1847,7 +1853,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" ht="116.05" customHeight="1">
+    <row r="26" ht="92.05" customHeight="1">
       <c r="A26" t="s" s="8">
         <v>27</v>
       </c>
@@ -1877,7 +1883,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="44.05" customHeight="1">
+    <row r="28" ht="32.05" customHeight="1">
       <c r="A28" t="s" s="8">
         <v>29</v>
       </c>
@@ -1885,7 +1891,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
@@ -1907,8 +1913,8 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="92.35" customHeight="1">
-      <c r="A30" t="s" s="12">
+    <row r="30" ht="44.05" customHeight="1">
+      <c r="A30" t="s" s="8">
         <v>31</v>
       </c>
       <c r="B30" s="9">
@@ -1922,8 +1928,8 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="80.05" customHeight="1">
-      <c r="A31" t="s" s="8">
+    <row r="31" ht="80.35" customHeight="1">
+      <c r="A31" t="s" s="12">
         <v>32</v>
       </c>
       <c r="B31" s="9">
@@ -1937,7 +1943,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" ht="44.05" customHeight="1">
+    <row r="32" ht="80.05" customHeight="1">
       <c r="A32" t="s" s="8">
         <v>33</v>
       </c>
@@ -1952,7 +1958,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" ht="68.05" customHeight="1">
+    <row r="33" ht="44.05" customHeight="1">
       <c r="A33" t="s" s="8">
         <v>34</v>
       </c>
@@ -1960,14 +1966,14 @@
         <v>3</v>
       </c>
       <c r="C33" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" ht="44.05" customHeight="1">
+    <row r="34" ht="68.05" customHeight="1">
       <c r="A34" t="s" s="8">
         <v>35</v>
       </c>
@@ -1982,7 +1988,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" ht="68.05" customHeight="1">
+    <row r="35" ht="44.05" customHeight="1">
       <c r="A35" t="s" s="8">
         <v>36</v>
       </c>
@@ -1997,7 +2003,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" ht="80.05" customHeight="1">
+    <row r="36" ht="68.05" customHeight="1">
       <c r="A36" t="s" s="8">
         <v>37</v>
       </c>
@@ -2027,7 +2033,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
     </row>
-    <row r="38" ht="56.05" customHeight="1">
+    <row r="38" ht="68.05" customHeight="1">
       <c r="A38" t="s" s="8">
         <v>39</v>
       </c>
@@ -2042,12 +2048,12 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
     </row>
-    <row r="39" ht="68.05" customHeight="1">
+    <row r="39" ht="44.05" customHeight="1">
       <c r="A39" t="s" s="8">
         <v>40</v>
       </c>
       <c r="B39" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39" s="10">
         <v>4</v>
@@ -2057,12 +2063,12 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" ht="92.05" customHeight="1">
+    <row r="40" ht="56.05" customHeight="1">
       <c r="A40" t="s" s="8">
         <v>41</v>
       </c>
       <c r="B40" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40" s="10">
         <v>4</v>
@@ -2072,7 +2078,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
     </row>
-    <row r="41" ht="80.05" customHeight="1">
+    <row r="41" ht="68.05" customHeight="1">
       <c r="A41" t="s" s="8">
         <v>42</v>
       </c>
@@ -2086,6 +2092,36 @@
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
+    </row>
+    <row r="42" ht="92.05" customHeight="1">
+      <c r="A42" t="s" s="8">
+        <v>43</v>
+      </c>
+      <c r="B42" s="9">
+        <v>4</v>
+      </c>
+      <c r="C42" s="10">
+        <v>4</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+    </row>
+    <row r="43" ht="80.05" customHeight="1">
+      <c r="A43" t="s" s="8">
+        <v>44</v>
+      </c>
+      <c r="B43" s="9">
+        <v>4</v>
+      </c>
+      <c r="C43" s="10">
+        <v>4</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/23.xlsx
+++ b/story_xlsx_files/23.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>storyText</t>
   </si>
@@ -55,7 +55,7 @@
     <t>The grocery store was brightly lit; this was one of the nicest grocery stores in Atlanta, and sunlight poured in through the glass walls.</t>
   </si>
   <si>
-    <t>The atmosphere was also bright because tomorrow was Thanksgiving, and most shoppers had carts piled high with turkey, stuffing, and pie.</t>
+    <t>The atmosphere was also bright because tomorrow was Thanksgiving, and most shoppers had carts piled high with turkey, stuffing, and pies.</t>
   </si>
   <si>
     <t xml:space="preserve">Alex wanted to propose to Chloe here because he knew she would not suspect it at all. </t>
@@ -85,7 +85,7 @@
     <t>She was mulling over the different cans of cranberry sauce, and Alex knew she would be a while.</t>
   </si>
   <si>
-    <t xml:space="preserve"> He turned his back to her and pulled out the ring.</t>
+    <t>He turned his back to her and pulled out the ring.</t>
   </si>
   <si>
     <t xml:space="preserve">He had been saving up for this for a while. </t>
@@ -94,7 +94,7 @@
     <t xml:space="preserve">The ring had three large diamonds with smaller ones encircling each one: all of them sparkled in the light streaming in from the windows. </t>
   </si>
   <si>
-    <t xml:space="preserve">“Alex?” Chloe said suspiciously. </t>
+    <t xml:space="preserve">“Alex?”, Chloe said suspiciously. </t>
   </si>
   <si>
     <t>He closed the box and whipped around. “Yes?”</t>
@@ -121,10 +121,7 @@
     <t xml:space="preserve">They got the message and walked over slowly. </t>
   </si>
   <si>
-    <t>“Honey,” he said to get her attention, “Look, Chloe, I love you so much and I want to be with you forever.</t>
-  </si>
-  <si>
-    <t>I can’t imagine a day without you.”</t>
+    <t>“Honey,” he said to get her attention, “Look, Chloe, I love you so much and I want to be with you forever, I can’t imagine a day without you.”</t>
   </si>
   <si>
     <t>“Awww, Alex, me too.”</t>
@@ -133,7 +130,7 @@
     <t xml:space="preserve">Alex got down on one knee, and Chloe gasped. </t>
   </si>
   <si>
-    <t xml:space="preserve"> “I am serious, Chloe. Will you marry me?”</t>
+    <t>“I am serious, Chloe. Will you marry me?”</t>
   </si>
   <si>
     <t>The people in line around them realized what was happening, stepped back, and started taking pictures.</t>
@@ -145,7 +142,7 @@
     <t xml:space="preserve">Chloe looked around and laughed. </t>
   </si>
   <si>
-    <t xml:space="preserve"> “Yes!” she shouted, and jumped to embrace Alex in a tearful hug. </t>
+    <t xml:space="preserve">“Yes!” she shouted, and jumped to embrace Alex in a hug. </t>
   </si>
   <si>
     <t xml:space="preserve">Everyone in line clapped and cheered. </t>
@@ -157,7 +154,7 @@
     <t>“I love it, oh my gosh, it’s so glittery!</t>
   </si>
   <si>
-    <t>Look at this!” she said as she shoved her finger in a stranger’s face.</t>
+    <t>Look at this!” she said as she shoved her hand in a stranger’s face.</t>
   </si>
   <si>
     <t>Her friends came over and hugged them.</t>
@@ -172,7 +169,7 @@
     <t>The total came to $4 and Chloe paid in cash while getting distracted and staring at the ring as she pulled out the bills.</t>
   </si>
   <si>
-    <t xml:space="preserve">Alex grabbed the cans and they walked out with their friends bunched around them. </t>
+    <t xml:space="preserve">Alex grabbed the cans, and they walked out with their friends bunched around them. </t>
   </si>
 </sst>
 </file>
@@ -186,7 +183,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica Neue Medium"/>
     </font>
     <font>
       <sz val="12"/>
@@ -382,7 +379,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1466,7 +1463,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1474,7 +1471,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1853,7 +1856,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" ht="92.05" customHeight="1">
+    <row r="26" ht="116.05" customHeight="1">
       <c r="A26" t="s" s="8">
         <v>27</v>
       </c>
@@ -1883,7 +1886,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="32.05" customHeight="1">
+    <row r="28" ht="44.05" customHeight="1">
       <c r="A28" t="s" s="8">
         <v>29</v>
       </c>
@@ -1891,7 +1894,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
@@ -1913,8 +1916,8 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="44.05" customHeight="1">
-      <c r="A30" t="s" s="8">
+    <row r="30" ht="80.35" customHeight="1">
+      <c r="A30" t="s" s="12">
         <v>31</v>
       </c>
       <c r="B30" s="9">
@@ -1928,8 +1931,8 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="80.35" customHeight="1">
-      <c r="A31" t="s" s="12">
+    <row r="31" ht="80.05" customHeight="1">
+      <c r="A31" t="s" s="8">
         <v>32</v>
       </c>
       <c r="B31" s="9">
@@ -1943,7 +1946,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" ht="80.05" customHeight="1">
+    <row r="32" ht="44.05" customHeight="1">
       <c r="A32" t="s" s="8">
         <v>33</v>
       </c>
@@ -1958,7 +1961,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" ht="44.05" customHeight="1">
+    <row r="33" ht="68.05" customHeight="1">
       <c r="A33" t="s" s="8">
         <v>34</v>
       </c>
@@ -1966,14 +1969,14 @@
         <v>3</v>
       </c>
       <c r="C33" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" ht="68.05" customHeight="1">
+    <row r="34" ht="44.05" customHeight="1">
       <c r="A34" t="s" s="8">
         <v>35</v>
       </c>
@@ -1988,7 +1991,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" ht="44.05" customHeight="1">
+    <row r="35" ht="68.05" customHeight="1">
       <c r="A35" t="s" s="8">
         <v>36</v>
       </c>
@@ -2003,7 +2006,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" ht="68.05" customHeight="1">
+    <row r="36" ht="44.05" customHeight="1">
       <c r="A36" t="s" s="8">
         <v>37</v>
       </c>
@@ -2018,7 +2021,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" ht="44.05" customHeight="1">
+    <row r="37" ht="68.05" customHeight="1">
       <c r="A37" t="s" s="8">
         <v>38</v>
       </c>
@@ -2033,7 +2036,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
     </row>
-    <row r="38" ht="68.05" customHeight="1">
+    <row r="38" ht="44.05" customHeight="1">
       <c r="A38" t="s" s="8">
         <v>39</v>
       </c>
@@ -2048,7 +2051,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
     </row>
-    <row r="39" ht="44.05" customHeight="1">
+    <row r="39" ht="56.05" customHeight="1">
       <c r="A39" t="s" s="8">
         <v>40</v>
       </c>
@@ -2063,12 +2066,12 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" ht="56.05" customHeight="1">
+    <row r="40" ht="68.05" customHeight="1">
       <c r="A40" t="s" s="8">
         <v>41</v>
       </c>
       <c r="B40" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C40" s="10">
         <v>4</v>
@@ -2078,7 +2081,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
     </row>
-    <row r="41" ht="68.05" customHeight="1">
+    <row r="41" ht="92.05" customHeight="1">
       <c r="A41" t="s" s="8">
         <v>42</v>
       </c>
@@ -2093,7 +2096,7 @@
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
     </row>
-    <row r="42" ht="92.05" customHeight="1">
+    <row r="42" ht="80.05" customHeight="1">
       <c r="A42" t="s" s="8">
         <v>43</v>
       </c>
@@ -2107,21 +2110,6 @@
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
-    </row>
-    <row r="43" ht="80.05" customHeight="1">
-      <c r="A43" t="s" s="8">
-        <v>44</v>
-      </c>
-      <c r="B43" s="9">
-        <v>4</v>
-      </c>
-      <c r="C43" s="10">
-        <v>4</v>
-      </c>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/23.xlsx
+++ b/story_xlsx_files/23.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>storyText</t>
   </si>
@@ -21,6 +21,9 @@
   </si>
   <si>
     <t>socialEvent</t>
+  </si>
+  <si>
+    <t>story</t>
   </si>
   <si>
     <r>
@@ -30,25 +33,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>Al</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>x was a distracted, sweaty mess as he walked into the grocery store with Chloe; he was hoping that she wouldn't suspect that he was about to propose.</t>
+      <t>Alex was a distracted, sweaty mess as he walked into the grocery store with Chloe; he was hoping that she wouldn't suspect that he was about to propose.</t>
     </r>
   </si>
   <si>
@@ -179,7 +164,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -188,7 +173,12 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue Medium"/>
     </font>
     <font>
       <b val="1"/>
@@ -202,7 +192,7 @@
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,6 +208,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -341,44 +337,38 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -402,6 +392,7 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -418,10 +409,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -450,14 +441,14 @@
     </a:clrScheme>
     <a:fontScheme name="Blank">
       <a:majorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Blank">
@@ -598,11 +589,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent1"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -611,33 +605,33 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
             <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
@@ -888,10 +882,10 @@
         <a:noFill/>
         <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1182,7 +1176,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1206,9 +1200,9 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
             <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
@@ -1465,9 +1459,7 @@
   </sheetPr>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -1491,14 +1483,16 @@
       <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
     <row r="2" ht="128.25" customHeight="1">
       <c r="A2" t="s" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -1506,616 +1500,618 @@
       <c r="C2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="D2" s="6">
+        <v>23</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" ht="104.05" customHeight="1">
-      <c r="A3" t="s" s="8">
+      <c r="A3" t="s" s="7">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" ht="116.05" customHeight="1">
+      <c r="A4" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" ht="80.05" customHeight="1">
+      <c r="A5" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" ht="80.05" customHeight="1">
+      <c r="A6" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" ht="68.05" customHeight="1">
+      <c r="A7" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" ht="56.05" customHeight="1">
+      <c r="A8" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="B8" s="8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" ht="44.05" customHeight="1">
+      <c r="A9" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="B9" s="8">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" ht="68.05" customHeight="1">
+      <c r="A10" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="B10" s="8">
+        <v>2</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" ht="44.05" customHeight="1">
+      <c r="A11" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="B11" s="8">
+        <v>2</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" ht="44.05" customHeight="1">
+      <c r="A12" t="s" s="7">
+        <v>14</v>
+      </c>
+      <c r="B12" s="8">
+        <v>2</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" ht="80.05" customHeight="1">
+      <c r="A13" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="B13" s="8">
+        <v>2</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" ht="44.05" customHeight="1">
+      <c r="A14" t="s" s="7">
+        <v>16</v>
+      </c>
+      <c r="B14" s="8">
+        <v>2</v>
+      </c>
+      <c r="C14" s="9">
+        <v>2</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" ht="44.05" customHeight="1">
+      <c r="A15" t="s" s="7">
+        <v>17</v>
+      </c>
+      <c r="B15" s="8">
+        <v>2</v>
+      </c>
+      <c r="C15" s="9">
+        <v>2</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" ht="104.05" customHeight="1">
+      <c r="A16" t="s" s="7">
+        <v>18</v>
+      </c>
+      <c r="B16" s="8">
+        <v>2</v>
+      </c>
+      <c r="C16" s="9">
+        <v>2</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" ht="32.05" customHeight="1">
+      <c r="A17" t="s" s="7">
+        <v>19</v>
+      </c>
+      <c r="B17" s="8">
+        <v>2</v>
+      </c>
+      <c r="C17" s="9">
+        <v>2</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" ht="44.05" customHeight="1">
+      <c r="A18" t="s" s="7">
+        <v>20</v>
+      </c>
+      <c r="B18" s="8">
+        <v>2</v>
+      </c>
+      <c r="C18" s="9">
+        <v>2</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" ht="32.05" customHeight="1">
+      <c r="A19" t="s" s="7">
+        <v>21</v>
+      </c>
+      <c r="B19" s="8">
+        <v>2</v>
+      </c>
+      <c r="C19" s="9">
+        <v>2</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" ht="32.05" customHeight="1">
+      <c r="A20" t="s" s="7">
+        <v>22</v>
+      </c>
+      <c r="B20" s="8">
+        <v>2</v>
+      </c>
+      <c r="C20" s="9">
+        <v>2</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" ht="56.05" customHeight="1">
+      <c r="A21" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="B21" s="8">
+        <v>3</v>
+      </c>
+      <c r="C21" s="9">
+        <v>2</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" ht="44.05" customHeight="1">
+      <c r="A22" t="s" s="7">
+        <v>24</v>
+      </c>
+      <c r="B22" s="8">
+        <v>3</v>
+      </c>
+      <c r="C22" s="9">
+        <v>2</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" ht="80.05" customHeight="1">
+      <c r="A23" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="B23" s="8">
+        <v>3</v>
+      </c>
+      <c r="C23" s="9">
+        <v>2</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" ht="68.05" customHeight="1">
+      <c r="A24" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="B24" s="8">
+        <v>3</v>
+      </c>
+      <c r="C24" s="9">
+        <v>2</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" ht="56.05" customHeight="1">
+      <c r="A25" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="B25" s="8">
+        <v>3</v>
+      </c>
+      <c r="C25" s="9">
+        <v>2</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" ht="116.05" customHeight="1">
+      <c r="A26" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="B26" s="8">
+        <v>3</v>
+      </c>
+      <c r="C26" s="9">
+        <v>2</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" ht="32.05" customHeight="1">
+      <c r="A27" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="B27" s="8">
+        <v>3</v>
+      </c>
+      <c r="C27" s="9">
+        <v>2</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" ht="44.05" customHeight="1">
+      <c r="A28" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="B28" s="8">
+        <v>3</v>
+      </c>
+      <c r="C28" s="9">
+        <v>3</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" ht="44.05" customHeight="1">
+      <c r="A29" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="B29" s="8">
+        <v>3</v>
+      </c>
+      <c r="C29" s="9">
+        <v>3</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" ht="80.35" customHeight="1">
+      <c r="A30" t="s" s="10">
+        <v>32</v>
+      </c>
+      <c r="B30" s="8">
+        <v>3</v>
+      </c>
+      <c r="C30" s="9">
+        <v>3</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" ht="80.05" customHeight="1">
+      <c r="A31" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="B31" s="8">
+        <v>3</v>
+      </c>
+      <c r="C31" s="9">
+        <v>3</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" ht="44.05" customHeight="1">
+      <c r="A32" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="B32" s="8">
+        <v>3</v>
+      </c>
+      <c r="C32" s="9">
+        <v>3</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" ht="68.05" customHeight="1">
+      <c r="A33" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="B33" s="8">
+        <v>3</v>
+      </c>
+      <c r="C33" s="9">
         <v>4</v>
       </c>
-      <c r="B3" s="9">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" ht="116.05" customHeight="1">
-      <c r="A4" t="s" s="8">
-        <v>5</v>
-      </c>
-      <c r="B4" s="9">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" ht="80.05" customHeight="1">
-      <c r="A5" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" ht="80.05" customHeight="1">
-      <c r="A6" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="B6" s="9">
-        <v>1</v>
-      </c>
-      <c r="C6" s="10">
-        <v>1</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" ht="68.05" customHeight="1">
-      <c r="A7" t="s" s="8">
-        <v>8</v>
-      </c>
-      <c r="B7" s="9">
-        <v>2</v>
-      </c>
-      <c r="C7" s="10">
-        <v>1</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" ht="56.05" customHeight="1">
-      <c r="A8" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="B8" s="9">
-        <v>2</v>
-      </c>
-      <c r="C8" s="10">
-        <v>1</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" ht="44.05" customHeight="1">
-      <c r="A9" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="B9" s="9">
-        <v>2</v>
-      </c>
-      <c r="C9" s="10">
-        <v>1</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" ht="68.05" customHeight="1">
-      <c r="A10" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="B10" s="9">
-        <v>2</v>
-      </c>
-      <c r="C10" s="10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" ht="44.05" customHeight="1">
-      <c r="A11" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="B11" s="9">
-        <v>2</v>
-      </c>
-      <c r="C11" s="10">
-        <v>1</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" ht="44.05" customHeight="1">
-      <c r="A12" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="B12" s="9">
-        <v>2</v>
-      </c>
-      <c r="C12" s="10">
-        <v>1</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" ht="80.05" customHeight="1">
-      <c r="A13" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="B13" s="9">
-        <v>2</v>
-      </c>
-      <c r="C13" s="10">
-        <v>1</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" ht="44.05" customHeight="1">
-      <c r="A14" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="B14" s="9">
-        <v>2</v>
-      </c>
-      <c r="C14" s="10">
-        <v>2</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" ht="44.05" customHeight="1">
-      <c r="A15" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="B15" s="9">
-        <v>2</v>
-      </c>
-      <c r="C15" s="10">
-        <v>2</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" ht="104.05" customHeight="1">
-      <c r="A16" t="s" s="8">
-        <v>17</v>
-      </c>
-      <c r="B16" s="9">
-        <v>2</v>
-      </c>
-      <c r="C16" s="10">
-        <v>2</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" ht="32.05" customHeight="1">
-      <c r="A17" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B17" s="9">
-        <v>2</v>
-      </c>
-      <c r="C17" s="10">
-        <v>2</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" ht="44.05" customHeight="1">
-      <c r="A18" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="B18" s="9">
-        <v>2</v>
-      </c>
-      <c r="C18" s="10">
-        <v>2</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" ht="32.05" customHeight="1">
-      <c r="A19" t="s" s="8">
-        <v>20</v>
-      </c>
-      <c r="B19" s="9">
-        <v>2</v>
-      </c>
-      <c r="C19" s="10">
-        <v>2</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" ht="32.05" customHeight="1">
-      <c r="A20" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="B20" s="9">
-        <v>2</v>
-      </c>
-      <c r="C20" s="10">
-        <v>2</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" ht="56.05" customHeight="1">
-      <c r="A21" t="s" s="8">
-        <v>22</v>
-      </c>
-      <c r="B21" s="9">
-        <v>3</v>
-      </c>
-      <c r="C21" s="10">
-        <v>2</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" ht="44.05" customHeight="1">
-      <c r="A22" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="B22" s="9">
-        <v>3</v>
-      </c>
-      <c r="C22" s="10">
-        <v>2</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" ht="80.05" customHeight="1">
-      <c r="A23" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="B23" s="9">
-        <v>3</v>
-      </c>
-      <c r="C23" s="10">
-        <v>2</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" ht="68.05" customHeight="1">
-      <c r="A24" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="B24" s="9">
-        <v>3</v>
-      </c>
-      <c r="C24" s="10">
-        <v>2</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" ht="56.05" customHeight="1">
-      <c r="A25" t="s" s="8">
-        <v>26</v>
-      </c>
-      <c r="B25" s="9">
-        <v>3</v>
-      </c>
-      <c r="C25" s="10">
-        <v>2</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" ht="116.05" customHeight="1">
-      <c r="A26" t="s" s="8">
-        <v>27</v>
-      </c>
-      <c r="B26" s="9">
-        <v>3</v>
-      </c>
-      <c r="C26" s="10">
-        <v>2</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" ht="32.05" customHeight="1">
-      <c r="A27" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="B27" s="9">
-        <v>3</v>
-      </c>
-      <c r="C27" s="10">
-        <v>2</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" ht="44.05" customHeight="1">
-      <c r="A28" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="B28" s="9">
-        <v>3</v>
-      </c>
-      <c r="C28" s="10">
-        <v>3</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" ht="44.05" customHeight="1">
-      <c r="A29" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="B29" s="9">
-        <v>3</v>
-      </c>
-      <c r="C29" s="10">
-        <v>3</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" ht="80.35" customHeight="1">
-      <c r="A30" t="s" s="12">
-        <v>31</v>
-      </c>
-      <c r="B30" s="9">
-        <v>3</v>
-      </c>
-      <c r="C30" s="10">
-        <v>3</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" ht="80.05" customHeight="1">
-      <c r="A31" t="s" s="8">
-        <v>32</v>
-      </c>
-      <c r="B31" s="9">
-        <v>3</v>
-      </c>
-      <c r="C31" s="10">
-        <v>3</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-    </row>
-    <row r="32" ht="44.05" customHeight="1">
-      <c r="A32" t="s" s="8">
-        <v>33</v>
-      </c>
-      <c r="B32" s="9">
-        <v>3</v>
-      </c>
-      <c r="C32" s="10">
-        <v>3</v>
-      </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-    </row>
-    <row r="33" ht="68.05" customHeight="1">
-      <c r="A33" t="s" s="8">
-        <v>34</v>
-      </c>
-      <c r="B33" s="9">
-        <v>3</v>
-      </c>
-      <c r="C33" s="10">
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" ht="44.05" customHeight="1">
+      <c r="A34" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="B34" s="8">
+        <v>3</v>
+      </c>
+      <c r="C34" s="9">
         <v>4</v>
       </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-    </row>
-    <row r="34" ht="44.05" customHeight="1">
-      <c r="A34" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="B34" s="9">
-        <v>3</v>
-      </c>
-      <c r="C34" s="10">
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" ht="68.05" customHeight="1">
+      <c r="A35" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="B35" s="8">
+        <v>3</v>
+      </c>
+      <c r="C35" s="9">
         <v>4</v>
       </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-    </row>
-    <row r="35" ht="68.05" customHeight="1">
-      <c r="A35" t="s" s="8">
-        <v>36</v>
-      </c>
-      <c r="B35" s="9">
-        <v>3</v>
-      </c>
-      <c r="C35" s="10">
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" ht="44.05" customHeight="1">
+      <c r="A36" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="B36" s="8">
+        <v>3</v>
+      </c>
+      <c r="C36" s="9">
         <v>4</v>
       </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-    </row>
-    <row r="36" ht="44.05" customHeight="1">
-      <c r="A36" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="B36" s="9">
-        <v>3</v>
-      </c>
-      <c r="C36" s="10">
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+    </row>
+    <row r="37" ht="68.05" customHeight="1">
+      <c r="A37" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="B37" s="8">
+        <v>3</v>
+      </c>
+      <c r="C37" s="9">
         <v>4</v>
       </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-    </row>
-    <row r="37" ht="68.05" customHeight="1">
-      <c r="A37" t="s" s="8">
-        <v>38</v>
-      </c>
-      <c r="B37" s="9">
-        <v>3</v>
-      </c>
-      <c r="C37" s="10">
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+    </row>
+    <row r="38" ht="44.05" customHeight="1">
+      <c r="A38" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="B38" s="8">
+        <v>3</v>
+      </c>
+      <c r="C38" s="9">
         <v>4</v>
       </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-    </row>
-    <row r="38" ht="44.05" customHeight="1">
-      <c r="A38" t="s" s="8">
-        <v>39</v>
-      </c>
-      <c r="B38" s="9">
-        <v>3</v>
-      </c>
-      <c r="C38" s="10">
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+    </row>
+    <row r="39" ht="56.05" customHeight="1">
+      <c r="A39" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="B39" s="8">
+        <v>3</v>
+      </c>
+      <c r="C39" s="9">
         <v>4</v>
       </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-    </row>
-    <row r="39" ht="56.05" customHeight="1">
-      <c r="A39" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="B39" s="9">
-        <v>3</v>
-      </c>
-      <c r="C39" s="10">
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+    </row>
+    <row r="40" ht="68.05" customHeight="1">
+      <c r="A40" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="B40" s="8">
         <v>4</v>
       </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-    </row>
-    <row r="40" ht="68.05" customHeight="1">
-      <c r="A40" t="s" s="8">
-        <v>41</v>
-      </c>
-      <c r="B40" s="9">
+      <c r="C40" s="9">
         <v>4</v>
       </c>
-      <c r="C40" s="10">
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+    </row>
+    <row r="41" ht="92.05" customHeight="1">
+      <c r="A41" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="B41" s="8">
         <v>4</v>
       </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-    </row>
-    <row r="41" ht="92.05" customHeight="1">
-      <c r="A41" t="s" s="8">
-        <v>42</v>
-      </c>
-      <c r="B41" s="9">
+      <c r="C41" s="9">
         <v>4</v>
       </c>
-      <c r="C41" s="10">
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" ht="80.05" customHeight="1">
+      <c r="A42" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="B42" s="8">
         <v>4</v>
       </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-    </row>
-    <row r="42" ht="80.05" customHeight="1">
-      <c r="A42" t="s" s="8">
-        <v>43</v>
-      </c>
-      <c r="B42" s="9">
+      <c r="C42" s="9">
         <v>4</v>
       </c>
-      <c r="C42" s="10">
-        <v>4</v>
-      </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/story_xlsx_files/23.xlsx
+++ b/story_xlsx_files/23.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>storyText</t>
   </si>
@@ -37,28 +37,28 @@
     </r>
   </si>
   <si>
-    <t>The grocery store was brightly lit; this was one of the nicest grocery stores in Atlanta, and sunlight poured in through the glass walls.</t>
-  </si>
-  <si>
-    <t>The atmosphere was also bright because tomorrow was Thanksgiving, and most shoppers had carts piled high with turkey, stuffing, and pies.</t>
+    <t>The grocery store was brightly lit with singing pouring in through glass walls at the front of the store.</t>
+  </si>
+  <si>
+    <t>Also at the front of the store were large posters advertising thanksgiving promotions.</t>
+  </si>
+  <si>
+    <t>The atmosphere was also buzzing because tomorrow was Thanksgiving, and most shoppers had carts piled high with turkey, stuffing, and pies.</t>
   </si>
   <si>
     <t xml:space="preserve">Alex wanted to propose to Chloe here because he knew she would not suspect it at all. </t>
   </si>
   <si>
-    <t xml:space="preserve">Chloe loved surprises, and Alex loved the look on Chloe’s face when she was surprised. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Alex, we need to get some cranberry sauce, so let’s go there first.” </t>
+    <t xml:space="preserve">After 23 months of dating, Alex know one of the things Chloe loved most was surprises. </t>
   </si>
   <si>
     <t xml:space="preserve">She led the way to the section of the store that held the canned foods. </t>
   </si>
   <si>
-    <t xml:space="preserve">Alex looked like he was going to throw up. </t>
-  </si>
-  <si>
-    <t>As they were walking there, Chloe asked him, “Is everything okay, dear?”</t>
+    <t xml:space="preserve">“Alex, we need to get some cranberry sauce, so we’re going there first.” </t>
+  </si>
+  <si>
+    <t>Alex was jittery and as they were walking there, Chloe asked him, “Is everything okay, dear?”</t>
   </si>
   <si>
     <t xml:space="preserve">“Oh yeah, for sure,” he said, unconvincingly. </t>
@@ -67,19 +67,16 @@
     <t xml:space="preserve">She chuckled, “Alright, whatever you say.” </t>
   </si>
   <si>
-    <t>She was mulling over the different cans of cranberry sauce, and Alex knew she would be a while.</t>
+    <t>She had already picked out a can of pumpkin puree, vinegar, and she was now mulling over the different cans of cranberry sauce, and Alex knew she would be a while.</t>
   </si>
   <si>
     <t>He turned his back to her and pulled out the ring.</t>
   </si>
   <si>
-    <t xml:space="preserve">He had been saving up for this for a while. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The ring had three large diamonds with smaller ones encircling each one: all of them sparkled in the light streaming in from the windows. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Alex?”, Chloe said suspiciously. </t>
+    <t xml:space="preserve">The ring had one white diamond on a thin band that sparkled in the light. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Alex?”, Chloe said suspiciously with the chosen can of cranberry sauce in her hand. </t>
   </si>
   <si>
     <t>He closed the box and whipped around. “Yes?”</t>
@@ -91,13 +88,13 @@
     <t xml:space="preserve">“Yeah I don’t know, honey.” </t>
   </si>
   <si>
-    <t>They went to the checkout and waited in a long line.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alex was staring intensely off into the distance. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chloe was watching him trying to decide whether he looked scared or confused. </t>
+    <t xml:space="preserve">They went to the checkout where there were 5 aisles open and they stepped in line for station 3. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex was staring intensely off into the distance for most of the time and fidgeting with his wallet. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chloe watched him trying to decide whether he looked scared or confused, and shrugged, pulling out her phone since she figured he’d talk about whatever was on his mind when he was ready. </t>
   </si>
   <si>
     <t>Alex looked over at their friends who were waiting by the entrance of the grocery store.</t>
@@ -115,6 +112,9 @@
     <t xml:space="preserve">Alex got down on one knee, and Chloe gasped. </t>
   </si>
   <si>
+    <t>The ring was in the crevice of his wallet, and he opened it.</t>
+  </si>
+  <si>
     <t>“I am serious, Chloe. Will you marry me?”</t>
   </si>
   <si>
@@ -148,13 +148,16 @@
     <t xml:space="preserve">The other people let them move up to the front of the checkout line. </t>
   </si>
   <si>
+    <t xml:space="preserve">Chloe immediately texted her mom a picture of her hand. </t>
+  </si>
+  <si>
     <t xml:space="preserve">The cashier congratulated them and scanned their cranberry sauce. </t>
   </si>
   <si>
-    <t>The total came to $4 and Chloe paid in cash while getting distracted and staring at the ring as she pulled out the bills.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alex grabbed the cans, and they walked out with their friends bunched around them. </t>
+    <t>The total came to $14 and Alex paid in cash while Chloe greeted their friends.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex grabbed the bags, and they all walked out together working out where they’d go to celebrate.  </t>
   </si>
 </sst>
 </file>
@@ -337,7 +340,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -347,7 +350,7 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -359,6 +362,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -366,6 +372,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1457,19 +1469,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1503,609 +1509,620 @@
       <c r="D2" s="6">
         <v>23</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" ht="104.05" customHeight="1">
-      <c r="A3" t="s" s="7">
+      <c r="A3" t="s" s="8">
         <v>5</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="10">
         <v>1</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" ht="116.05" customHeight="1">
-      <c r="A4" t="s" s="7">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" ht="104.05" customHeight="1">
+      <c r="A4" t="s" s="8">
         <v>6</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="10">
         <v>1</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" ht="80.05" customHeight="1">
-      <c r="A5" t="s" s="7">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" ht="116.05" customHeight="1">
+      <c r="A5" t="s" s="8">
         <v>7</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>1</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="10">
         <v>1</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" ht="80.05" customHeight="1">
-      <c r="A6" t="s" s="7">
+      <c r="A6" t="s" s="8">
         <v>8</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="9">
         <v>1</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="10">
         <v>1</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" ht="68.05" customHeight="1">
-      <c r="A7" t="s" s="7">
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" ht="80.05" customHeight="1">
+      <c r="A7" t="s" s="8">
         <v>9</v>
       </c>
-      <c r="B7" s="8">
-        <v>2</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="B7" s="9">
         <v>1</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" ht="56.05" customHeight="1">
-      <c r="A8" t="s" s="7">
+      <c r="A8" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="B8" s="8">
-        <v>2</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="B8" s="9">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10">
         <v>1</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" ht="44.05" customHeight="1">
-      <c r="A9" t="s" s="7">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" ht="68.05" customHeight="1">
+      <c r="A9" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="B9" s="8">
-        <v>2</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="B9" s="9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="10">
         <v>1</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" ht="68.05" customHeight="1">
-      <c r="A10" t="s" s="7">
+      <c r="A10" t="s" s="8">
         <v>12</v>
       </c>
-      <c r="B10" s="8">
-        <v>2</v>
-      </c>
-      <c r="C10" s="9">
+      <c r="B10" s="9">
+        <v>2</v>
+      </c>
+      <c r="C10" s="10">
         <v>1</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" ht="44.05" customHeight="1">
-      <c r="A11" t="s" s="7">
+      <c r="A11" t="s" s="8">
         <v>13</v>
       </c>
-      <c r="B11" s="8">
-        <v>2</v>
-      </c>
-      <c r="C11" s="9">
+      <c r="B11" s="9">
+        <v>2</v>
+      </c>
+      <c r="C11" s="10">
         <v>1</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" ht="44.05" customHeight="1">
-      <c r="A12" t="s" s="7">
+      <c r="A12" t="s" s="8">
         <v>14</v>
       </c>
-      <c r="B12" s="8">
-        <v>2</v>
-      </c>
-      <c r="C12" s="9">
+      <c r="B12" s="9">
+        <v>2</v>
+      </c>
+      <c r="C12" s="10">
         <v>1</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" ht="80.05" customHeight="1">
-      <c r="A13" t="s" s="7">
+      <c r="A13" t="s" s="8">
         <v>15</v>
       </c>
-      <c r="B13" s="8">
-        <v>2</v>
-      </c>
-      <c r="C13" s="9">
+      <c r="B13" s="9">
+        <v>2</v>
+      </c>
+      <c r="C13" s="10">
         <v>1</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" ht="44.05" customHeight="1">
-      <c r="A14" t="s" s="7">
+      <c r="A14" t="s" s="8">
         <v>16</v>
       </c>
-      <c r="B14" s="8">
-        <v>2</v>
-      </c>
-      <c r="C14" s="9">
-        <v>2</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" ht="44.05" customHeight="1">
-      <c r="A15" t="s" s="7">
+      <c r="B14" s="9">
+        <v>2</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" ht="104.05" customHeight="1">
+      <c r="A15" t="s" s="8">
         <v>17</v>
       </c>
-      <c r="B15" s="8">
-        <v>2</v>
-      </c>
-      <c r="C15" s="9">
-        <v>2</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" ht="104.05" customHeight="1">
-      <c r="A16" t="s" s="7">
+      <c r="B15" s="9">
+        <v>2</v>
+      </c>
+      <c r="C15" s="10">
+        <v>2</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" ht="32.05" customHeight="1">
+      <c r="A16" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B16" s="8">
-        <v>2</v>
-      </c>
-      <c r="C16" s="9">
-        <v>2</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" ht="32.05" customHeight="1">
-      <c r="A17" t="s" s="7">
+      <c r="B16" s="9">
+        <v>2</v>
+      </c>
+      <c r="C16" s="10">
+        <v>2</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" ht="44.05" customHeight="1">
+      <c r="A17" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="B17" s="8">
-        <v>2</v>
-      </c>
-      <c r="C17" s="9">
-        <v>2</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" ht="44.05" customHeight="1">
-      <c r="A18" t="s" s="7">
+      <c r="B17" s="9">
+        <v>2</v>
+      </c>
+      <c r="C17" s="10">
+        <v>2</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" ht="32.05" customHeight="1">
+      <c r="A18" t="s" s="8">
         <v>20</v>
       </c>
-      <c r="B18" s="8">
-        <v>2</v>
-      </c>
-      <c r="C18" s="9">
-        <v>2</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="B18" s="9">
+        <v>2</v>
+      </c>
+      <c r="C18" s="10">
+        <v>2</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" ht="32.05" customHeight="1">
-      <c r="A19" t="s" s="7">
+      <c r="A19" t="s" s="8">
         <v>21</v>
       </c>
-      <c r="B19" s="8">
-        <v>2</v>
-      </c>
-      <c r="C19" s="9">
-        <v>2</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" ht="32.05" customHeight="1">
-      <c r="A20" t="s" s="7">
+      <c r="B19" s="9">
+        <v>2</v>
+      </c>
+      <c r="C19" s="10">
+        <v>2</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" ht="56.05" customHeight="1">
+      <c r="A20" t="s" s="8">
         <v>22</v>
       </c>
-      <c r="B20" s="8">
-        <v>2</v>
-      </c>
-      <c r="C20" s="9">
-        <v>2</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" ht="56.05" customHeight="1">
-      <c r="A21" t="s" s="7">
+      <c r="B20" s="9">
+        <v>3</v>
+      </c>
+      <c r="C20" s="10">
+        <v>2</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" ht="44.05" customHeight="1">
+      <c r="A21" t="s" s="8">
         <v>23</v>
       </c>
-      <c r="B21" s="8">
-        <v>3</v>
-      </c>
-      <c r="C21" s="9">
-        <v>2</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" ht="44.05" customHeight="1">
-      <c r="A22" t="s" s="7">
+      <c r="B21" s="9">
+        <v>3</v>
+      </c>
+      <c r="C21" s="10">
+        <v>2</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" ht="80.05" customHeight="1">
+      <c r="A22" t="s" s="8">
         <v>24</v>
       </c>
-      <c r="B22" s="8">
-        <v>3</v>
-      </c>
-      <c r="C22" s="9">
-        <v>2</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" ht="80.05" customHeight="1">
-      <c r="A23" t="s" s="7">
+      <c r="B22" s="9">
+        <v>3</v>
+      </c>
+      <c r="C22" s="10">
+        <v>2</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" ht="68.05" customHeight="1">
+      <c r="A23" t="s" s="8">
         <v>25</v>
       </c>
-      <c r="B23" s="8">
-        <v>3</v>
-      </c>
-      <c r="C23" s="9">
-        <v>2</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" ht="68.05" customHeight="1">
-      <c r="A24" t="s" s="7">
+      <c r="B23" s="9">
+        <v>3</v>
+      </c>
+      <c r="C23" s="10">
+        <v>2</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" ht="56.05" customHeight="1">
+      <c r="A24" t="s" s="8">
         <v>26</v>
       </c>
-      <c r="B24" s="8">
-        <v>3</v>
-      </c>
-      <c r="C24" s="9">
-        <v>2</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" ht="56.05" customHeight="1">
-      <c r="A25" t="s" s="7">
+      <c r="B24" s="9">
+        <v>3</v>
+      </c>
+      <c r="C24" s="10">
+        <v>2</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" ht="116.05" customHeight="1">
+      <c r="A25" t="s" s="8">
         <v>27</v>
       </c>
-      <c r="B25" s="8">
-        <v>3</v>
-      </c>
-      <c r="C25" s="9">
-        <v>2</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" ht="116.05" customHeight="1">
-      <c r="A26" t="s" s="7">
+      <c r="B25" s="9">
+        <v>3</v>
+      </c>
+      <c r="C25" s="10">
+        <v>2</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" ht="32.05" customHeight="1">
+      <c r="A26" t="s" s="8">
         <v>28</v>
       </c>
-      <c r="B26" s="8">
-        <v>3</v>
-      </c>
-      <c r="C26" s="9">
-        <v>2</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" ht="32.05" customHeight="1">
-      <c r="A27" t="s" s="7">
+      <c r="B26" s="9">
+        <v>3</v>
+      </c>
+      <c r="C26" s="10">
+        <v>2</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" ht="44.05" customHeight="1">
+      <c r="A27" t="s" s="8">
         <v>29</v>
       </c>
-      <c r="B27" s="8">
-        <v>3</v>
-      </c>
-      <c r="C27" s="9">
-        <v>2</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
+      <c r="B27" s="9">
+        <v>3</v>
+      </c>
+      <c r="C27" s="10">
+        <v>3</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
     </row>
     <row r="28" ht="44.05" customHeight="1">
-      <c r="A28" t="s" s="7">
+      <c r="A28" t="s" s="8">
         <v>30</v>
       </c>
-      <c r="B28" s="8">
-        <v>3</v>
-      </c>
-      <c r="C28" s="9">
-        <v>3</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
     </row>
     <row r="29" ht="44.05" customHeight="1">
-      <c r="A29" t="s" s="7">
+      <c r="A29" t="s" s="8">
         <v>31</v>
       </c>
-      <c r="B29" s="8">
-        <v>3</v>
-      </c>
-      <c r="C29" s="9">
-        <v>3</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
+      <c r="B29" s="9">
+        <v>3</v>
+      </c>
+      <c r="C29" s="10">
+        <v>3</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
     </row>
     <row r="30" ht="80.35" customHeight="1">
-      <c r="A30" t="s" s="10">
+      <c r="A30" t="s" s="13">
         <v>32</v>
       </c>
-      <c r="B30" s="8">
-        <v>3</v>
-      </c>
-      <c r="C30" s="9">
-        <v>3</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
+      <c r="B30" s="9">
+        <v>3</v>
+      </c>
+      <c r="C30" s="10">
+        <v>3</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
     </row>
     <row r="31" ht="80.05" customHeight="1">
-      <c r="A31" t="s" s="7">
+      <c r="A31" t="s" s="8">
         <v>33</v>
       </c>
-      <c r="B31" s="8">
-        <v>3</v>
-      </c>
-      <c r="C31" s="9">
-        <v>3</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
+      <c r="B31" s="9">
+        <v>3</v>
+      </c>
+      <c r="C31" s="10">
+        <v>3</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
     </row>
     <row r="32" ht="44.05" customHeight="1">
-      <c r="A32" t="s" s="7">
+      <c r="A32" t="s" s="8">
         <v>34</v>
       </c>
-      <c r="B32" s="8">
-        <v>3</v>
-      </c>
-      <c r="C32" s="9">
-        <v>3</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
+      <c r="B32" s="9">
+        <v>3</v>
+      </c>
+      <c r="C32" s="10">
+        <v>3</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
     </row>
     <row r="33" ht="68.05" customHeight="1">
-      <c r="A33" t="s" s="7">
+      <c r="A33" t="s" s="8">
         <v>35</v>
       </c>
-      <c r="B33" s="8">
-        <v>3</v>
-      </c>
-      <c r="C33" s="9">
+      <c r="B33" s="9">
+        <v>3</v>
+      </c>
+      <c r="C33" s="10">
         <v>4</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" ht="44.05" customHeight="1">
-      <c r="A34" t="s" s="7">
+      <c r="A34" t="s" s="8">
         <v>36</v>
       </c>
-      <c r="B34" s="8">
-        <v>3</v>
-      </c>
-      <c r="C34" s="9">
+      <c r="B34" s="9">
+        <v>3</v>
+      </c>
+      <c r="C34" s="10">
         <v>4</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
     </row>
     <row r="35" ht="68.05" customHeight="1">
-      <c r="A35" t="s" s="7">
+      <c r="A35" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="B35" s="8">
-        <v>3</v>
-      </c>
-      <c r="C35" s="9">
+      <c r="B35" s="9">
+        <v>3</v>
+      </c>
+      <c r="C35" s="10">
         <v>4</v>
       </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
     </row>
     <row r="36" ht="44.05" customHeight="1">
-      <c r="A36" t="s" s="7">
+      <c r="A36" t="s" s="8">
         <v>38</v>
       </c>
-      <c r="B36" s="8">
-        <v>3</v>
-      </c>
-      <c r="C36" s="9">
+      <c r="B36" s="9">
+        <v>3</v>
+      </c>
+      <c r="C36" s="10">
         <v>4</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
     </row>
     <row r="37" ht="68.05" customHeight="1">
-      <c r="A37" t="s" s="7">
+      <c r="A37" t="s" s="8">
         <v>39</v>
       </c>
-      <c r="B37" s="8">
-        <v>3</v>
-      </c>
-      <c r="C37" s="9">
+      <c r="B37" s="9">
+        <v>3</v>
+      </c>
+      <c r="C37" s="10">
         <v>4</v>
       </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
     </row>
     <row r="38" ht="44.05" customHeight="1">
-      <c r="A38" t="s" s="7">
+      <c r="A38" t="s" s="8">
         <v>40</v>
       </c>
-      <c r="B38" s="8">
-        <v>3</v>
-      </c>
-      <c r="C38" s="9">
+      <c r="B38" s="9">
+        <v>3</v>
+      </c>
+      <c r="C38" s="10">
         <v>4</v>
       </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
     </row>
     <row r="39" ht="56.05" customHeight="1">
-      <c r="A39" t="s" s="7">
+      <c r="A39" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="B39" s="8">
-        <v>3</v>
-      </c>
-      <c r="C39" s="9">
+      <c r="B39" s="9">
+        <v>3</v>
+      </c>
+      <c r="C39" s="10">
         <v>4</v>
       </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-    </row>
-    <row r="40" ht="68.05" customHeight="1">
-      <c r="A40" t="s" s="7">
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" ht="56.05" customHeight="1">
+      <c r="A40" t="s" s="8">
         <v>42</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="9">
+        <v>3</v>
+      </c>
+      <c r="C40" s="10">
         <v>4</v>
       </c>
-      <c r="C40" s="9">
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+    </row>
+    <row r="41" ht="68.05" customHeight="1">
+      <c r="A41" t="s" s="8">
+        <v>43</v>
+      </c>
+      <c r="B41" s="9">
         <v>4</v>
       </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-    </row>
-    <row r="41" ht="92.05" customHeight="1">
-      <c r="A41" t="s" s="7">
-        <v>43</v>
-      </c>
-      <c r="B41" s="8">
+      <c r="C41" s="10">
         <v>4</v>
       </c>
-      <c r="C41" s="9">
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+    </row>
+    <row r="42" ht="92.05" customHeight="1">
+      <c r="A42" t="s" s="8">
+        <v>44</v>
+      </c>
+      <c r="B42" s="9">
         <v>4</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" ht="80.05" customHeight="1">
-      <c r="A42" t="s" s="7">
-        <v>44</v>
-      </c>
-      <c r="B42" s="8">
+      <c r="C42" s="10">
         <v>4</v>
       </c>
-      <c r="C42" s="9">
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+    </row>
+    <row r="43" ht="80.05" customHeight="1">
+      <c r="A43" t="s" s="8">
+        <v>45</v>
+      </c>
+      <c r="B43" s="9">
         <v>4</v>
       </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
+      <c r="C43" s="10">
+        <v>4</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/23.xlsx
+++ b/story_xlsx_files/23.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>storyText</t>
   </si>
@@ -33,7 +33,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>Alex was a distracted, sweaty mess as he walked into the grocery store with Chloe; he was hoping that she wouldn't suspect that he was about to propose.</t>
+      <t>Alex was a distracted, sweaty mess as he walked into the grocery store with Chloe; he was hoping that she wouldn't suspect in the slightest that he was about to propose.</t>
     </r>
   </si>
   <si>
@@ -46,19 +46,16 @@
     <t>The atmosphere was also buzzing because tomorrow was Thanksgiving, and most shoppers had carts piled high with turkey, stuffing, and pies.</t>
   </si>
   <si>
-    <t xml:space="preserve">Alex wanted to propose to Chloe here because he knew she would not suspect it at all. </t>
+    <t xml:space="preserve">Alex wanted to propose here because he knew she would be surprised. </t>
   </si>
   <si>
     <t xml:space="preserve">After 23 months of dating, Alex know one of the things Chloe loved most was surprises. </t>
   </si>
   <si>
-    <t xml:space="preserve">She led the way to the section of the store that held the canned foods. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Alex, we need to get some cranberry sauce, so we’re going there first.” </t>
-  </si>
-  <si>
-    <t>Alex was jittery and as they were walking there, Chloe asked him, “Is everything okay, dear?”</t>
+    <t>Chloe perused the canned goods aisle, and said, “Alex, we need some cranberry sauce.”</t>
+  </si>
+  <si>
+    <t>He didn’t hear her and was fanning himself, prompting her to ask him if he was okay.</t>
   </si>
   <si>
     <t xml:space="preserve">“Oh yeah, for sure,” he said, unconvincingly. </t>
@@ -67,28 +64,22 @@
     <t xml:space="preserve">She chuckled, “Alright, whatever you say.” </t>
   </si>
   <si>
-    <t>She had already picked out a can of pumpkin puree, vinegar, and she was now mulling over the different cans of cranberry sauce, and Alex knew she would be a while.</t>
-  </si>
-  <si>
-    <t>He turned his back to her and pulled out the ring.</t>
+    <t>She had a can of pumpkin puree and a bottle of vinegar picked out, and she was now mulling over the different cans of cranberry sauce.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex was guessing she would be a while, and he turned his back to her and pulled out the ring to look at it one more time. </t>
   </si>
   <si>
     <t xml:space="preserve">The ring had one white diamond on a thin band that sparkled in the light. </t>
   </si>
   <si>
-    <t xml:space="preserve">“Alex?”, Chloe said suspiciously with the chosen can of cranberry sauce in her hand. </t>
-  </si>
-  <si>
-    <t>He closed the box and whipped around. “Yes?”</t>
-  </si>
-  <si>
-    <t>“Do we need anything else?”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Yeah I don’t know, honey.” </t>
-  </si>
-  <si>
-    <t xml:space="preserve">They went to the checkout where there were 5 aisles open and they stepped in line for station 3. </t>
+    <t xml:space="preserve">“Do we need anything else?” She called out to him. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Yeah I don’t know, honey,” he said back, still looking at the ring. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the checkout area, there were 5 aisles open and they stepped in line for station 3. </t>
   </si>
   <si>
     <t xml:space="preserve">Alex was staring intensely off into the distance for most of the time and fidgeting with his wallet. </t>
@@ -100,16 +91,16 @@
     <t>Alex looked over at their friends who were waiting by the entrance of the grocery store.</t>
   </si>
   <si>
-    <t xml:space="preserve">They got the message and walked over slowly. </t>
+    <t xml:space="preserve">They walked over slowly. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex got down on one knee, and Chloe gasped. </t>
   </si>
   <si>
     <t>“Honey,” he said to get her attention, “Look, Chloe, I love you so much and I want to be with you forever, I can’t imagine a day without you.”</t>
   </si>
   <si>
-    <t>“Awww, Alex, me too.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alex got down on one knee, and Chloe gasped. </t>
+    <t>“Alex, me too,” she replied.</t>
   </si>
   <si>
     <t>The ring was in the crevice of his wallet, and he opened it.</t>
@@ -124,10 +115,7 @@
     <t xml:space="preserve">Their friends were no longer trying to hide and were videotaping and taking pictures too. </t>
   </si>
   <si>
-    <t xml:space="preserve">Chloe looked around and laughed. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Yes!” she shouted, and jumped to embrace Alex in a hug. </t>
+    <t xml:space="preserve">After a few moments of suspense she shouted,“Yes!”, and she jumped to embrace Alex in a hug. </t>
   </si>
   <si>
     <t xml:space="preserve">Everyone in line clapped and cheered. </t>
@@ -151,7 +139,7 @@
     <t xml:space="preserve">Chloe immediately texted her mom a picture of her hand. </t>
   </si>
   <si>
-    <t xml:space="preserve">The cashier congratulated them and scanned their cranberry sauce. </t>
+    <t xml:space="preserve">The cashier congratulated them and scanned their groceries. </t>
   </si>
   <si>
     <t>The total came to $14 and Alex paid in cash while Chloe greeted their friends.</t>
@@ -1469,7 +1457,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1588,7 +1576,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" ht="56.05" customHeight="1">
+    <row r="8" ht="68.05" customHeight="1">
       <c r="A8" t="s" s="8">
         <v>10</v>
       </c>
@@ -1603,7 +1591,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" ht="68.05" customHeight="1">
+    <row r="9" ht="44.05" customHeight="1">
       <c r="A9" t="s" s="8">
         <v>11</v>
       </c>
@@ -1618,7 +1606,7 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" ht="68.05" customHeight="1">
+    <row r="10" ht="44.05" customHeight="1">
       <c r="A10" t="s" s="8">
         <v>12</v>
       </c>
@@ -1648,7 +1636,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" ht="44.05" customHeight="1">
+    <row r="12" ht="80.05" customHeight="1">
       <c r="A12" t="s" s="8">
         <v>14</v>
       </c>
@@ -1663,7 +1651,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" ht="80.05" customHeight="1">
+    <row r="13" ht="44.05" customHeight="1">
       <c r="A13" t="s" s="8">
         <v>15</v>
       </c>
@@ -1671,14 +1659,14 @@
         <v>2</v>
       </c>
       <c r="C13" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" ht="44.05" customHeight="1">
+    <row r="14" ht="104.05" customHeight="1">
       <c r="A14" t="s" s="8">
         <v>16</v>
       </c>
@@ -1693,7 +1681,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" ht="104.05" customHeight="1">
+    <row r="15" ht="32.05" customHeight="1">
       <c r="A15" t="s" s="8">
         <v>17</v>
       </c>
@@ -1723,12 +1711,12 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" ht="44.05" customHeight="1">
+    <row r="17" ht="56.05" customHeight="1">
       <c r="A17" t="s" s="8">
         <v>19</v>
       </c>
       <c r="B17" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" s="10">
         <v>2</v>
@@ -1738,12 +1726,12 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" ht="32.05" customHeight="1">
+    <row r="18" ht="44.05" customHeight="1">
       <c r="A18" t="s" s="8">
         <v>20</v>
       </c>
       <c r="B18" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" s="10">
         <v>2</v>
@@ -1753,12 +1741,12 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" ht="32.05" customHeight="1">
+    <row r="19" ht="80.05" customHeight="1">
       <c r="A19" t="s" s="8">
         <v>21</v>
       </c>
       <c r="B19" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="10">
         <v>2</v>
@@ -1768,7 +1756,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" ht="56.05" customHeight="1">
+    <row r="20" ht="68.05" customHeight="1">
       <c r="A20" t="s" s="8">
         <v>22</v>
       </c>
@@ -1783,7 +1771,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" ht="44.05" customHeight="1">
+    <row r="21" ht="56.05" customHeight="1">
       <c r="A21" t="s" s="8">
         <v>23</v>
       </c>
@@ -1798,7 +1786,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" ht="80.05" customHeight="1">
+    <row r="22" ht="44.05" customHeight="1">
       <c r="A22" t="s" s="8">
         <v>24</v>
       </c>
@@ -1806,14 +1794,14 @@
         <v>3</v>
       </c>
       <c r="C22" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" ht="68.05" customHeight="1">
+    <row r="23" ht="116.05" customHeight="1">
       <c r="A23" t="s" s="8">
         <v>25</v>
       </c>
@@ -1828,7 +1816,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" ht="56.05" customHeight="1">
+    <row r="24" ht="32.05" customHeight="1">
       <c r="A24" t="s" s="8">
         <v>26</v>
       </c>
@@ -1843,22 +1831,18 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" ht="116.05" customHeight="1">
+    <row r="25" ht="44.05" customHeight="1">
       <c r="A25" t="s" s="8">
         <v>27</v>
       </c>
-      <c r="B25" s="9">
-        <v>3</v>
-      </c>
-      <c r="C25" s="10">
-        <v>2</v>
-      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" ht="32.05" customHeight="1">
+    <row r="26" ht="44.05" customHeight="1">
       <c r="A26" t="s" s="8">
         <v>28</v>
       </c>
@@ -1866,15 +1850,15 @@
         <v>3</v>
       </c>
       <c r="C26" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" ht="44.05" customHeight="1">
-      <c r="A27" t="s" s="8">
+    <row r="27" ht="80.35" customHeight="1">
+      <c r="A27" t="s" s="13">
         <v>29</v>
       </c>
       <c r="B27" s="9">
@@ -1888,18 +1872,22 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="44.05" customHeight="1">
+    <row r="28" ht="80.05" customHeight="1">
       <c r="A28" t="s" s="8">
         <v>30</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="11"/>
+      <c r="B28" s="9">
+        <v>3</v>
+      </c>
+      <c r="C28" s="10">
+        <v>3</v>
+      </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="44.05" customHeight="1">
+    <row r="29" ht="68.05" customHeight="1">
       <c r="A29" t="s" s="8">
         <v>31</v>
       </c>
@@ -1907,29 +1895,29 @@
         <v>3</v>
       </c>
       <c r="C29" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="80.35" customHeight="1">
-      <c r="A30" t="s" s="13">
+    <row r="30" ht="44.05" customHeight="1">
+      <c r="A30" t="s" s="8">
         <v>32</v>
       </c>
       <c r="B30" s="9">
         <v>3</v>
       </c>
       <c r="C30" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="80.05" customHeight="1">
+    <row r="31" ht="68.05" customHeight="1">
       <c r="A31" t="s" s="8">
         <v>33</v>
       </c>
@@ -1937,7 +1925,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
@@ -1952,7 +1940,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
@@ -1989,7 +1977,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" ht="68.05" customHeight="1">
+    <row r="35" ht="56.05" customHeight="1">
       <c r="A35" t="s" s="8">
         <v>37</v>
       </c>
@@ -2004,7 +1992,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" ht="44.05" customHeight="1">
+    <row r="36" ht="56.05" customHeight="1">
       <c r="A36" t="s" s="8">
         <v>38</v>
       </c>
@@ -2024,7 +2012,7 @@
         <v>39</v>
       </c>
       <c r="B37" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C37" s="10">
         <v>4</v>
@@ -2034,12 +2022,12 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
     </row>
-    <row r="38" ht="44.05" customHeight="1">
+    <row r="38" ht="92.05" customHeight="1">
       <c r="A38" t="s" s="8">
         <v>40</v>
       </c>
       <c r="B38" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C38" s="10">
         <v>4</v>
@@ -2049,12 +2037,12 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
     </row>
-    <row r="39" ht="56.05" customHeight="1">
+    <row r="39" ht="80.05" customHeight="1">
       <c r="A39" t="s" s="8">
         <v>41</v>
       </c>
       <c r="B39" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C39" s="10">
         <v>4</v>
@@ -2063,66 +2051,6 @@
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
-    </row>
-    <row r="40" ht="56.05" customHeight="1">
-      <c r="A40" t="s" s="8">
-        <v>42</v>
-      </c>
-      <c r="B40" s="9">
-        <v>3</v>
-      </c>
-      <c r="C40" s="10">
-        <v>4</v>
-      </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-    </row>
-    <row r="41" ht="68.05" customHeight="1">
-      <c r="A41" t="s" s="8">
-        <v>43</v>
-      </c>
-      <c r="B41" s="9">
-        <v>4</v>
-      </c>
-      <c r="C41" s="10">
-        <v>4</v>
-      </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-    </row>
-    <row r="42" ht="92.05" customHeight="1">
-      <c r="A42" t="s" s="8">
-        <v>44</v>
-      </c>
-      <c r="B42" s="9">
-        <v>4</v>
-      </c>
-      <c r="C42" s="10">
-        <v>4</v>
-      </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-    </row>
-    <row r="43" ht="80.05" customHeight="1">
-      <c r="A43" t="s" s="8">
-        <v>45</v>
-      </c>
-      <c r="B43" s="9">
-        <v>4</v>
-      </c>
-      <c r="C43" s="10">
-        <v>4</v>
-      </c>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/23.xlsx
+++ b/story_xlsx_files/23.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>storyText</t>
   </si>
@@ -33,17 +33,17 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>Alex was a distracted, sweaty mess as he walked into the grocery store with Chloe; he was hoping that she wouldn't suspect in the slightest that he was about to propose.</t>
+      <t>Alex was a distracted, sweaty mess as he walked into the grocery store with Chloe; he was hoping that she wouldn't suspect that he was about to propose.</t>
     </r>
   </si>
   <si>
-    <t>The grocery store was brightly lit with singing pouring in through glass walls at the front of the store.</t>
+    <t>The grocery store was brightly lit with sunshine pouring in through glass walls at the front of the store.</t>
   </si>
   <si>
     <t>Also at the front of the store were large posters advertising thanksgiving promotions.</t>
   </si>
   <si>
-    <t>The atmosphere was also buzzing because tomorrow was Thanksgiving, and most shoppers had carts piled high with turkey, stuffing, and pies.</t>
+    <t>The store was buzzing with activity because the next day was Thanksgiving, and most shoppers had carts piled high with turkey, stuffing, and pies.</t>
   </si>
   <si>
     <t xml:space="preserve">Alex wanted to propose here because he knew she would be surprised. </t>
@@ -94,10 +94,13 @@
     <t xml:space="preserve">They walked over slowly. </t>
   </si>
   <si>
-    <t xml:space="preserve">Alex got down on one knee, and Chloe gasped. </t>
-  </si>
-  <si>
-    <t>“Honey,” he said to get her attention, “Look, Chloe, I love you so much and I want to be with you forever, I can’t imagine a day without you.”</t>
+    <t xml:space="preserve">Out of nowhere, Alex took Chloe’s hand and he got down on one knee. </t>
+  </si>
+  <si>
+    <t>Chloe gasped</t>
+  </si>
+  <si>
+    <t>“Chloe, I love you so much and I want to be with you forever, I can’t imagine a day without you.”</t>
   </si>
   <si>
     <t>“Alex, me too,” she replied.</t>
@@ -106,7 +109,7 @@
     <t>The ring was in the crevice of his wallet, and he opened it.</t>
   </si>
   <si>
-    <t>“I am serious, Chloe. Will you marry me?”</t>
+    <t>“Will you marry me?”</t>
   </si>
   <si>
     <t>The people in line around them realized what was happening, stepped back, and started taking pictures.</t>
@@ -328,7 +331,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -363,9 +366,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1457,7 +1457,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1801,7 +1801,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" ht="116.05" customHeight="1">
+    <row r="23" ht="44.05" customHeight="1">
       <c r="A23" t="s" s="8">
         <v>25</v>
       </c>
@@ -1809,14 +1809,14 @@
         <v>3</v>
       </c>
       <c r="C23" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" ht="32.05" customHeight="1">
+    <row r="24" ht="116.05" customHeight="1">
       <c r="A24" t="s" s="8">
         <v>26</v>
       </c>
@@ -1831,12 +1831,16 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" ht="44.05" customHeight="1">
+    <row r="25" ht="32.05" customHeight="1">
       <c r="A25" t="s" s="8">
         <v>27</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="11"/>
+      <c r="B25" s="9">
+        <v>3</v>
+      </c>
+      <c r="C25" s="10">
+        <v>3</v>
+      </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
@@ -1857,8 +1861,8 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" ht="80.35" customHeight="1">
-      <c r="A27" t="s" s="13">
+    <row r="27" ht="44.05" customHeight="1">
+      <c r="A27" t="s" s="8">
         <v>29</v>
       </c>
       <c r="B27" s="9">
@@ -1872,8 +1876,8 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="80.05" customHeight="1">
-      <c r="A28" t="s" s="8">
+    <row r="28" ht="80.35" customHeight="1">
+      <c r="A28" t="s" s="12">
         <v>30</v>
       </c>
       <c r="B28" s="9">
@@ -1887,7 +1891,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="68.05" customHeight="1">
+    <row r="29" ht="80.05" customHeight="1">
       <c r="A29" t="s" s="8">
         <v>31</v>
       </c>
@@ -1895,14 +1899,14 @@
         <v>3</v>
       </c>
       <c r="C29" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="44.05" customHeight="1">
+    <row r="30" ht="68.05" customHeight="1">
       <c r="A30" t="s" s="8">
         <v>32</v>
       </c>
@@ -1917,7 +1921,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="68.05" customHeight="1">
+    <row r="31" ht="44.05" customHeight="1">
       <c r="A31" t="s" s="8">
         <v>33</v>
       </c>
@@ -1932,7 +1936,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" ht="44.05" customHeight="1">
+    <row r="32" ht="68.05" customHeight="1">
       <c r="A32" t="s" s="8">
         <v>34</v>
       </c>
@@ -1947,7 +1951,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" ht="68.05" customHeight="1">
+    <row r="33" ht="44.05" customHeight="1">
       <c r="A33" t="s" s="8">
         <v>35</v>
       </c>
@@ -1962,7 +1966,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" ht="44.05" customHeight="1">
+    <row r="34" ht="68.05" customHeight="1">
       <c r="A34" t="s" s="8">
         <v>36</v>
       </c>
@@ -1977,7 +1981,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" ht="56.05" customHeight="1">
+    <row r="35" ht="44.05" customHeight="1">
       <c r="A35" t="s" s="8">
         <v>37</v>
       </c>
@@ -2007,12 +2011,12 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" ht="68.05" customHeight="1">
+    <row r="37" ht="56.05" customHeight="1">
       <c r="A37" t="s" s="8">
         <v>39</v>
       </c>
       <c r="B37" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C37" s="10">
         <v>4</v>
@@ -2022,7 +2026,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
     </row>
-    <row r="38" ht="92.05" customHeight="1">
+    <row r="38" ht="68.05" customHeight="1">
       <c r="A38" t="s" s="8">
         <v>40</v>
       </c>
@@ -2037,7 +2041,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
     </row>
-    <row r="39" ht="80.05" customHeight="1">
+    <row r="39" ht="92.05" customHeight="1">
       <c r="A39" t="s" s="8">
         <v>41</v>
       </c>
@@ -2051,6 +2055,21 @@
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
+    </row>
+    <row r="40" ht="80.05" customHeight="1">
+      <c r="A40" t="s" s="8">
+        <v>42</v>
+      </c>
+      <c r="B40" s="9">
+        <v>4</v>
+      </c>
+      <c r="C40" s="10">
+        <v>4</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/23.xlsx
+++ b/story_xlsx_files/23.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>storyText</t>
   </si>
@@ -40,22 +40,22 @@
     <t>The grocery store was brightly lit with sunshine pouring in through glass walls at the front of the store.</t>
   </si>
   <si>
-    <t>Also at the front of the store were large posters advertising thanksgiving promotions.</t>
+    <t>Also in the front area were large posters advertising thanksgiving promotions.</t>
   </si>
   <si>
     <t>The store was buzzing with activity because the next day was Thanksgiving, and most shoppers had carts piled high with turkey, stuffing, and pies.</t>
   </si>
   <si>
-    <t xml:space="preserve">Alex wanted to propose here because he knew she would be surprised. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">After 23 months of dating, Alex know one of the things Chloe loved most was surprises. </t>
-  </si>
-  <si>
-    <t>Chloe perused the canned goods aisle, and said, “Alex, we need some cranberry sauce.”</t>
-  </si>
-  <si>
-    <t>He didn’t hear her and was fanning himself, prompting her to ask him if he was okay.</t>
+    <t xml:space="preserve">Alex wanted to propose here because he knew Chloe would be wonderfully surprised. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">After 23 months of dating, Alex knew one of the things Chloe loved most was surprises. </t>
+  </si>
+  <si>
+    <t>Chloe perused the canned goods aisle, and said, “Alex, we need a couple things.”</t>
+  </si>
+  <si>
+    <t>He didn’t hear her and was fanning himself, and Chloe asked him if he was okay.</t>
   </si>
   <si>
     <t xml:space="preserve">“Oh yeah, for sure,” he said, unconvincingly. </t>
@@ -70,10 +70,10 @@
     <t xml:space="preserve">Alex was guessing she would be a while, and he turned his back to her and pulled out the ring to look at it one more time. </t>
   </si>
   <si>
-    <t xml:space="preserve">The ring had one white diamond on a thin band that sparkled in the light. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Do we need anything else?” She called out to him. </t>
+    <t xml:space="preserve">The ring a thin band with one white diamond that glittered excessively in the light. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Do we need anything else?” she called out to him. </t>
   </si>
   <si>
     <t xml:space="preserve">“Yeah I don’t know, honey,” he said back, still looking at the ring. </t>
@@ -94,7 +94,7 @@
     <t xml:space="preserve">They walked over slowly. </t>
   </si>
   <si>
-    <t xml:space="preserve">Out of nowhere, Alex took Chloe’s hand and he got down on one knee. </t>
+    <t xml:space="preserve">Seemingly out of nowhere, Alex took Chloe’s hand and he got down on one knee. </t>
   </si>
   <si>
     <t>Chloe gasped</t>
@@ -127,13 +127,16 @@
     <t>Alex put the ring on Chloe’s finger, who was nearly spinning in excitement.</t>
   </si>
   <si>
-    <t>“I love it, oh my gosh, it’s so glittery!</t>
+    <t>“I love it!</t>
+  </si>
+  <si>
+    <t>Oh my- it’s so glittery!</t>
   </si>
   <si>
     <t>Look at this!” she said as she shoved her hand in a stranger’s face.</t>
   </si>
   <si>
-    <t>Her friends came over and hugged them.</t>
+    <t>Their friends came over and hugged them.</t>
   </si>
   <si>
     <t xml:space="preserve">The other people let them move up to the front of the checkout line. </t>
@@ -1457,7 +1460,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1824,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
@@ -1966,7 +1969,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" ht="68.05" customHeight="1">
+    <row r="34" ht="44.05" customHeight="1">
       <c r="A34" t="s" s="8">
         <v>36</v>
       </c>
@@ -1981,7 +1984,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" ht="44.05" customHeight="1">
+    <row r="35" ht="68.05" customHeight="1">
       <c r="A35" t="s" s="8">
         <v>37</v>
       </c>
@@ -1996,7 +1999,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" ht="56.05" customHeight="1">
+    <row r="36" ht="44.05" customHeight="1">
       <c r="A36" t="s" s="8">
         <v>38</v>
       </c>
@@ -2026,12 +2029,12 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
     </row>
-    <row r="38" ht="68.05" customHeight="1">
+    <row r="38" ht="56.05" customHeight="1">
       <c r="A38" t="s" s="8">
         <v>40</v>
       </c>
       <c r="B38" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38" s="10">
         <v>4</v>
@@ -2041,7 +2044,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
     </row>
-    <row r="39" ht="92.05" customHeight="1">
+    <row r="39" ht="68.05" customHeight="1">
       <c r="A39" t="s" s="8">
         <v>41</v>
       </c>
@@ -2056,7 +2059,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" ht="80.05" customHeight="1">
+    <row r="40" ht="92.05" customHeight="1">
       <c r="A40" t="s" s="8">
         <v>42</v>
       </c>
@@ -2070,6 +2073,21 @@
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
+    </row>
+    <row r="41" ht="80.05" customHeight="1">
+      <c r="A41" t="s" s="8">
+        <v>43</v>
+      </c>
+      <c r="B41" s="9">
+        <v>4</v>
+      </c>
+      <c r="C41" s="10">
+        <v>4</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/23.xlsx
+++ b/story_xlsx_files/23.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>storyText</t>
   </si>
@@ -33,7 +33,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>Alex was a distracted, sweaty mess as he walked into the grocery store with Chloe; he was hoping that she wouldn't suspect that he was about to propose.</t>
+      <t>Alex was a distracted, sweaty mess as he walked into the grocery store with Chloe, and he was hoping that she wouldn't suspect that he was about to propose.</t>
     </r>
   </si>
   <si>
@@ -43,7 +43,7 @@
     <t>Also in the front area were large posters advertising thanksgiving promotions.</t>
   </si>
   <si>
-    <t>The store was buzzing with activity because the next day was Thanksgiving, and most shoppers had carts piled high with turkey, stuffing, and pies.</t>
+    <t>The store was buzzing with activity because the next day was Thanksgiving Day, and most shoppers had carts piled high with turkey, stuffing, and pies.</t>
   </si>
   <si>
     <t xml:space="preserve">Alex wanted to propose here because he knew Chloe would be wonderfully surprised. </t>
@@ -64,13 +64,13 @@
     <t xml:space="preserve">She chuckled, “Alright, whatever you say.” </t>
   </si>
   <si>
-    <t>She had a can of pumpkin puree and a bottle of vinegar picked out, and she was now mulling over the different cans of cranberry sauce.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alex was guessing she would be a while, and he turned his back to her and pulled out the ring to look at it one more time. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The ring a thin band with one white diamond that glittered excessively in the light. </t>
+    <t>She had a can of pumpkin puree and a bottle of vinegar picked out and was now mulling over the different cans of cranberry sauce.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex was guessing she would be a while, and so he turned his back to her and pulled out the ring to look at it one more time. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ring consisted of a thin band with one white diamond that glittered excessively in the light. </t>
   </si>
   <si>
     <t xml:space="preserve">“Do we need anything else?” she called out to him. </t>
@@ -100,7 +100,10 @@
     <t>Chloe gasped</t>
   </si>
   <si>
-    <t>“Chloe, I love you so much and I want to be with you forever, I can’t imagine a day without you.”</t>
+    <t>“Chloe, I love you so much, and I want to be with you forever.</t>
+  </si>
+  <si>
+    <t>I can’t imagine a day without you.”</t>
   </si>
   <si>
     <t>“Alex, me too,” she replied.</t>
@@ -148,7 +151,7 @@
     <t xml:space="preserve">The cashier congratulated them and scanned their groceries. </t>
   </si>
   <si>
-    <t>The total came to $14 and Alex paid in cash while Chloe greeted their friends.</t>
+    <t>The total came to $14, and Alex paid in cash while Chloe greeted their friends.</t>
   </si>
   <si>
     <t xml:space="preserve">Alex grabbed the bags, and they all walked out together working out where they’d go to celebrate.  </t>
@@ -1460,7 +1463,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1834,7 +1837,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" ht="32.05" customHeight="1">
+    <row r="25" ht="116.05" customHeight="1">
       <c r="A25" t="s" s="8">
         <v>27</v>
       </c>
@@ -1849,7 +1852,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" ht="44.05" customHeight="1">
+    <row r="26" ht="32.05" customHeight="1">
       <c r="A26" t="s" s="8">
         <v>28</v>
       </c>
@@ -1879,8 +1882,8 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="80.35" customHeight="1">
-      <c r="A28" t="s" s="12">
+    <row r="28" ht="44.05" customHeight="1">
+      <c r="A28" t="s" s="8">
         <v>30</v>
       </c>
       <c r="B28" s="9">
@@ -1894,8 +1897,8 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="80.05" customHeight="1">
-      <c r="A29" t="s" s="8">
+    <row r="29" ht="80.35" customHeight="1">
+      <c r="A29" t="s" s="12">
         <v>31</v>
       </c>
       <c r="B29" s="9">
@@ -1909,7 +1912,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="68.05" customHeight="1">
+    <row r="30" ht="80.05" customHeight="1">
       <c r="A30" t="s" s="8">
         <v>32</v>
       </c>
@@ -1917,14 +1920,14 @@
         <v>3</v>
       </c>
       <c r="C30" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="44.05" customHeight="1">
+    <row r="31" ht="68.05" customHeight="1">
       <c r="A31" t="s" s="8">
         <v>33</v>
       </c>
@@ -1939,7 +1942,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" ht="68.05" customHeight="1">
+    <row r="32" ht="44.05" customHeight="1">
       <c r="A32" t="s" s="8">
         <v>34</v>
       </c>
@@ -1954,7 +1957,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" ht="44.05" customHeight="1">
+    <row r="33" ht="68.05" customHeight="1">
       <c r="A33" t="s" s="8">
         <v>35</v>
       </c>
@@ -1984,7 +1987,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" ht="68.05" customHeight="1">
+    <row r="35" ht="44.05" customHeight="1">
       <c r="A35" t="s" s="8">
         <v>37</v>
       </c>
@@ -1999,7 +2002,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" ht="44.05" customHeight="1">
+    <row r="36" ht="68.05" customHeight="1">
       <c r="A36" t="s" s="8">
         <v>38</v>
       </c>
@@ -2014,7 +2017,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" ht="56.05" customHeight="1">
+    <row r="37" ht="44.05" customHeight="1">
       <c r="A37" t="s" s="8">
         <v>39</v>
       </c>
@@ -2044,12 +2047,12 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
     </row>
-    <row r="39" ht="68.05" customHeight="1">
+    <row r="39" ht="56.05" customHeight="1">
       <c r="A39" t="s" s="8">
         <v>41</v>
       </c>
       <c r="B39" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39" s="10">
         <v>4</v>
@@ -2059,7 +2062,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" ht="92.05" customHeight="1">
+    <row r="40" ht="68.05" customHeight="1">
       <c r="A40" t="s" s="8">
         <v>42</v>
       </c>
@@ -2074,7 +2077,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
     </row>
-    <row r="41" ht="80.05" customHeight="1">
+    <row r="41" ht="92.05" customHeight="1">
       <c r="A41" t="s" s="8">
         <v>43</v>
       </c>
@@ -2088,6 +2091,21 @@
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
+    </row>
+    <row r="42" ht="80.05" customHeight="1">
+      <c r="A42" t="s" s="8">
+        <v>44</v>
+      </c>
+      <c r="B42" s="9">
+        <v>4</v>
+      </c>
+      <c r="C42" s="10">
+        <v>4</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
